--- a/PWI_Tests.xlsx
+++ b/PWI_Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173AC70C-69DE-4C43-988A-BE51F15C1A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9575498-CC13-40C6-A7A6-07F49447A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{01329190-AE8B-4428-BE9B-4FAB065FB5D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01329190-AE8B-4428-BE9B-4FAB065FB5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,13 +410,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -428,10 +440,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,8 +452,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312AA1B-1025-49F9-9878-842505397BF4}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,13 +837,13 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -852,13 +869,13 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -884,13 +901,13 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -916,10 +933,10 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -936,7 +953,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,13 +1017,13 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1032,13 +1049,13 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1064,13 +1081,13 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1096,10 +1113,10 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1115,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F4410-F8AD-4BC2-863E-6BA7673C2A96}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,13 +1197,13 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1212,13 +1229,13 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1244,13 +1261,13 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1276,10 +1293,10 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="2" t="s">

--- a/PWI_Tests.xlsx
+++ b/PWI_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9575498-CC13-40C6-A7A6-07F49447A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F48B4D-4214-444D-8F2A-366AC198C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01329190-AE8B-4428-BE9B-4FAB065FB5D9}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
